--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8AD2C6-79F3-4171-8A00-20231DC9FFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431AF0F-B962-4C68-A25F-D651E9E9D4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -472,140 +472,86 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>5</v>
+        <v>235.6</v>
       </c>
       <c r="D7" s="4">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
+        <v>993</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4">
-        <v>12</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
-        <v>12</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4">
-        <v>9</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
-        <v>11</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431AF0F-B962-4C68-A25F-D651E9E9D4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B82904-18A8-481F-8B94-24F05A28993C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -432,7 +445,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B82904-18A8-481F-8B94-24F05A28993C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D5D5B-FC63-4C91-B619-7BAF4602F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,6 +223,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,25 +447,25 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -484,93 +486,93 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="11">
         <v>235.6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="11">
         <v>993</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <v>185</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D5D5B-FC63-4C91-B619-7BAF4602F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42CD53-B7F6-4DE9-A9E4-21B007FEEB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>GABONETAKO KANPAINA 2024</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Abenduak 20</t>
+  </si>
+  <si>
+    <t>235.6</t>
+  </si>
+  <si>
+    <t>993.00</t>
+  </si>
+  <si>
+    <t>185.00</t>
   </si>
 </sst>
 </file>
@@ -214,6 +223,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,9 +235,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,25 +456,25 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -486,87 +495,87 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
-        <v>235.6</v>
-      </c>
-      <c r="D7" s="11">
-        <v>993</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
-        <v>185</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42CD53-B7F6-4DE9-A9E4-21B007FEEB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA5E37-42B2-403B-A41A-7BD691E61936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GABONETAKO KANPAINA 2024</t>
   </si>
@@ -81,15 +81,6 @@
   </si>
   <si>
     <t>Abenduak 20</t>
-  </si>
-  <si>
-    <t>235.6</t>
-  </si>
-  <si>
-    <t>993.00</t>
-  </si>
-  <si>
-    <t>185.00</t>
   </si>
 </sst>
 </file>
@@ -223,9 +214,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,6 +223,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,25 +447,25 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -495,87 +486,87 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="C7" s="11">
+        <v>235</v>
+      </c>
+      <c r="D7" s="11">
+        <v>993</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="11">
+        <v>185</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA5E37-42B2-403B-A41A-7BD691E61936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3888AD-69C1-41DF-BA65-EB97C36F5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,6 +214,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,9 +226,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,25 +447,25 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C10" sqref="C10:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -486,87 +486,141 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>235</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>993</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>185</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -5,30 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3888AD-69C1-41DF-BA65-EB97C36F5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8AD2C6-79F3-4171-8A00-20231DC9FFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -208,14 +195,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,7 +432,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -486,147 +471,147 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>235</v>
-      </c>
-      <c r="D7" s="6">
-        <v>993</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
-        <v>185</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
+      <c r="C13" s="4">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8AD2C6-79F3-4171-8A00-20231DC9FFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA04BFA3-749D-48E3-9066-D45AEC29A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>GABONETAKO KANPAINA 2024</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Abenduak 11</t>
+  </si>
+  <si>
+    <t>235.60€</t>
   </si>
   <si>
     <t>Abenduak 12</t>
@@ -74,6 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,7 +201,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,25 +443,25 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -471,147 +482,93 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>993</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>185</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
-        <v>12</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA04BFA3-749D-48E3-9066-D45AEC29A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8E179-3A79-41E3-B764-0DB466C5865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7524" yWindow="984" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GABONETAKO KANPAINA 2024</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Abenduak 11</t>
-  </si>
-  <si>
-    <t>235.60€</t>
   </si>
   <si>
     <t>Abenduak 12</t>
@@ -77,7 +74,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -190,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +220,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +444,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+      <selection activeCell="C7" sqref="C7:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -482,8 +483,8 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
+      <c r="C7" s="13">
+        <v>235.6</v>
       </c>
       <c r="D7" s="5">
         <v>993</v>
@@ -492,7 +493,7 @@
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>185</v>
@@ -502,7 +503,7 @@
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -510,7 +511,7 @@
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -518,7 +519,7 @@
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -526,7 +527,7 @@
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -534,7 +535,7 @@
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -542,7 +543,7 @@
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -550,7 +551,7 @@
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -558,7 +559,7 @@
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8E179-3A79-41E3-B764-0DB466C5865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406FEE77-AEC2-4989-82C3-41E829176E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7524" yWindow="984" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
   </numFmts>
@@ -188,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,7 +224,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -444,25 +448,25 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -483,7 +487,7 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>235.6</v>
       </c>
       <c r="D7" s="5">
@@ -505,7 +509,9 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="14">
+        <v>139</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
@@ -513,7 +519,9 @@
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
@@ -521,7 +529,9 @@
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
@@ -529,7 +539,9 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>101.14</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406FEE77-AEC2-4989-82C3-41E829176E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2947D04D-0AD1-4035-A7B4-26CCADBDB2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,11 +74,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -189,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,20 +195,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,7 +210,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,25 +434,25 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C7" sqref="C7:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -487,101 +473,101 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>235.6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="11">
         <v>993</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="11">
         <v>185</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>139</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="11">
         <v>101.14</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2947D04D-0AD1-4035-A7B4-26CCADBDB2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A35724-25D0-46CF-A9F5-755F34ED0332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -201,6 +201,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,9 +213,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,25 +434,25 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -473,95 +473,107 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>235.6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>993</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>185</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="6">
+        <v>321</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>139</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="6">
+        <v>454.1</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>101.14</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="6">
+        <v>340</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="6">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6">
+        <v>322</v>
+      </c>
+      <c r="E13" s="6">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>

--- a/Kalkulu-orri izengabea.xlsx
+++ b/Kalkulu-orri izengabea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\elkartasuntaldea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A35724-25D0-46CF-A9F5-755F34ED0332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51C616C-7822-4EC6-84C8-5EF9EFA06566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -512,8 +512,12 @@
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -522,8 +526,12 @@
       <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -555,9 +563,15 @@
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="6">
+        <v>75</v>
+      </c>
+      <c r="D14" s="6">
+        <v>244.7</v>
+      </c>
+      <c r="E14" s="6">
+        <v>226</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
